--- a/contentpaths.xlsx
+++ b/contentpaths.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,28 +412,15 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>/content/abbvie-lmbc/be/fr-be/histoire/Francois-temoignage-psoriasis</v>
+        <v>/content/abbvie-pro/de/de</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>/content/abbvie-lmbc/ro/ro-ro/perspective-asupra-psoriazisului/viata-cu-psoriazis</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>/content/abbvie-lmbc/us/en-us</v>
-      </c>
-      <c r="B4" t="str">
+      <c r="B2" t="str">
         <v>Preview not activated</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/contentpaths.xlsx
+++ b/contentpaths.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,15 +412,2285 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>/content/abbvie-pro/de/de</v>
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/global-content-creation/impact-analyzer</v>
       </c>
       <c r="B2" t="str">
         <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/basic-login/change-password</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/set-password</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/get-support</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/useful-tools/goal-setting-guide</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/build-test/faqs</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/tools-to-support-a-new-conversation/setting-your-goals</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-verstehen</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/basic-login/change-password</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/neurodermitis-arztbesuch/arztbesuch-planer</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/take-control</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master-v2/en/resources</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/facilities/Chuugoku</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/demo/de/blog/neurodermitis-internationale-beobachtungsstudie-zeigt-hohen-leidensdruck-und-einen-deutlichen-behandlungsbedarf</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/errors/404</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/errors/403</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/test-01</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/test-02</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ar/es/basic-login/change-password</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/facilities</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/basic-login</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog/therapie</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/basic-login</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/sitemap</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/exzeem/samen-beslissen-met-je-dokter</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/basic-login</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/finde-hautaerztinnen/hausaerztinnen-finder</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/hilfreiche-tools/welchen-einfluss-hat-neurodermitis-auf-dich-und-dein-leben/neurodermitis-alltags-check</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/unterstuetzung-finden</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/podcast-rss</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/exzeem/verzorg-je-huid-goed</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/archive-cf/en/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/basic-login/forgot-password</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/what-are-the-symptoms-of-ad/symptoms</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/exzeem/pesten</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/priprava-na-rozhovor-s-lekarom/naplanujte-si-dalsie-stretnutie-s-lekarom</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/archive-cf/tr/ADyianlayin</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en1/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/basic-login/forgot-password</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/basic-login/set-password</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/finde-hautaerztinnen</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/archive-cf/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/archive-cf/tr/kontroluelealin</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/gemeinsame-therapieentscheidung</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/basic-login/forgot-password</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/archive---cf/nl/ondersteuning-nodig</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog/wissen</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/ota-tilanne-haltuun</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sitemap</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/be/forgot-password</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/basic-login/basic-login</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/facilities/Kyushu-Okinawa</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/br/pt/take-control</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/exzeem/ondersteuning-nodig</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/adhaerenz-neurodermitis</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/archive-cf/en/take-control</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/basic-login/set-password</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/comprenda-su-DA</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/fakty-o-ad</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/understanding-eczema/understanding-your-eczema</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/understanding-eczema/podcast</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/archive-cf/en/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/archive---cf/sv/tools-to-support-a-new-conversation</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/wiki/en/components/blog-post/atopic-eczema-with-black-or-dark-skin</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/errors/500</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/leben-mit-neurodermitis</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/neurodermitis-verstehen/uebersicht</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/Kontakt</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/co/es/take-control</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/errors</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool-short</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/archive---cf/blog-posts-node/blog-seven</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/be/nl/sitemap</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/test-page-jl/carousel-component</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/tools-to-support-a-new-conversation/setting-your-goals</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/sitemap</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en1/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ru/ru/taking-control</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/BD/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ar/es</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/understanding-eczema/what-is-ad</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/test/fr</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/change-password</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/sitemap0</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/errors</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/mutmachgeschichten-weltneurodermitistag</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fr/fr/basic-login/set-password</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/inicio-de-sesion</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/hilfreiche-tools/setze-dir-ziele--redirect-/behandlungsziel-planer</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/archive---cf/sv/tools-to-support-a-new-conversation/setting-your-goals/goal-writing-assistant</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/archive---cf/nl/tools-to-support-a-new-conversation/ontdek-hoe-constitutioneel-eczeem-jouw-leven-beinvloedt</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/wie-du-zur-bestmoeglichen-therapie-findest</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/errors/404</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/errors/403</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/errors/500</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/basic-login/basic-login</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/tools-to-support-a-new-conversation</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/demo/en/unterstuetzung-finden</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/schlafen-mit-neurodermitis</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/archive-cf/cs/tools-to-support-a-new-conversation/naplanujte-si-dalsi-schuzku-s-lekarem</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/informiert-bleiben</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/o-ekzemu</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/sieben-minuten</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/archive-cf/cs/o-ekzemu</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/priprava-na-rozhovor-s-lekarem/stanovte-si-sve-cile/goal-writing-assistant</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/archive-cf/en/get-support</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-internationale-beobachtungsstudie-zeigt-hohen-leidensdruck-und-einen-deutlichen-behandlungsbedarf</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/archive-cf/sk/get-support</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/living-with-ad</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/basic-login/forgot-password</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/terminos-de-uso</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/priprava-na-rozhovor-s-lekarem/poznejte-vliv-atopickeho-ekzemu</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/tools-to-support-a-new-conversation/setting-your-goals</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/wiki/en/components/basic-login</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/archive-cf/fi/keinoja-uuden-keskustelun-tueksi/valmistaudu-laakarikaynnille</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/archive-cf/sk/prevezmite-kontrolu</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/br/pt/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/uy/es/tome-el-control</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/co/es/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/basic-login</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/hilfreiche-tools/plane-deinen-naechsten-arztbesuch/arztbesuch-planer-kurz</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/build-test/el/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/archive-cf/en/understand-your-ad</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en1/understand-your-ad</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/welt-neurodermitis-tag-2024</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/welt-neurodermitis-tag-2023</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/archive---cf/blog-posts-node/blog-four</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/o-atopickem-ekzemu</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Preview not activated</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/get-support</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/build-test/sticky-bar</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/useful-tools/measuring-your-symptoms-quiz--ad-ss-</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fr/fr/ressources</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/br/pt/tools-to-support-a-new-conversation/setting-your-goals</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/test</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/basic-login/set-password</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-workshop</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/aviso-de-privacidad</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/archive-cf/sk/take-control</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/hilfreiche-tools/plane-deinen-naechsten-arztbesuch/arztbesuch-planer</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ru/ru/tools-to-support-a-new-conversation/setting-your-goals</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/what-are-the-symptoms-of-ad</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/archive-cf/tr/destekalin</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/mapa-del-sitio</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/wie-wird-neurodermitis-behandelt</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/neurodermitis-umgang-mit-der-krankheit-im-beruf</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/neurodermitis-verstehen/neurodermitis-alltags-check</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/priprava-na-rozhovor-s-lekarem</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/wann-neue-neurodermitis-therapie</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/conectar-con-un-medico</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/archive---cf/sv/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/archive---cf/sv/om-ad-och-patientorganisationen-atopikerna</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-information</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/exzeem/onzekerheid</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/priprava-na-rozhovor-s-lekarem/stanovte-si-sve-cile/asistent-nastavenim-cilu</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fr/fr/basic-login/forgot-password</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/demo/de/blog/was-kann-ich-von-einer-therapie-heutzutage-erwarten</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/faq</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/zkusenosti-pacientu</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/aktiv-werden</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-kratzt-auch-an-der-psyche-</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/basic-login</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/errors</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/genetik-bei-neurodermitis</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/spoznajte-svoju-ad</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/tools-to-support-a-new-conversation/setting-your-goals/goal-writing-assistant</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/uy/es/conectar-con-un-medico</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/uy/es/conectar-con-un-medico/encontra-apoyo</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/basic-login/forgot-password</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fr/fr/obtenez-de-laide/outil-de-preparation-de-rendez-vous-avec-votre-medecin</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/archive-cf/sk/tools-to-support-a-new-conversation</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/basic-login/forgot-password</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/basic-login/set-password</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/forgot-password</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/keinoja-uuden-keskustelun-tueksi</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/errors/500</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/sitemap</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/therapieziele-mit-arzt-festlegen</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/errors/500</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/archive---cf/nl/tools-to-support-a-new-conversation/ontdek-hoe-constitutioneel-eczeem-jouw-leven-beinvloedt/ad-impact-analyzer</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/uy/es/basic-login/set-password</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/demo/de/blog/ernaehrung-bei-neurodermitis</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fr/fr/ressources/faq</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/co/es/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-das-juckt-mich-nicht-mehr</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool-short</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/exzeem/behandeldoelen</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/archive---cf/nl/behandelopties</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/uy/es/aviso-de-privacidad</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/archive---cf/sv/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ar/es/errors</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/archive-cf/fi/loyda-tukea</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/basic-login/forgot-password</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/moznosti-lecby</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ar/es/recursos/preguntas-frecuentes</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ar/es/errors/404</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/archive---cf/nl/tools-to-support-a-new-conversation/bepaal-je-prioriteiten/goal-writing-assistant</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/errors</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/basic-login/set-password</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ar/es/sitemap</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/s3-neurodermitis-leitlinie</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/pt/pt/get-support</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en1/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/archive---cf/sv</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/social-media-richtlinie</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/ipuclari/hedeflerinizibelirleyin/hedef-belirleme-rehberi</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/useful-tools</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ru/ru/privacy</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/tools-to-support-a-new-conversation/bereid-de-afspraak-met-je-zorgverlener-voor/appointment-preparation-tool</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fr/fr/basic-login/basic-login</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/basic-login/basic-login</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/patientenrechte-neuer-ratgeber</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/faq3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/faq2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/faq1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/faq4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/keinoja-uuden-keskustelun-tueksi/valmistaudu-laakarikaynnille/lomake</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/ernaehrung-bei-neurodermitis</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/tools-to-support-a-new-conversation/ontdek-hoe-constitutioneel-eczeem-jouw-leven-beinvloedt</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/constitutioneel-eczeem-uitgelegd</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/pt/pt/tools-to-support-a-new-conversation</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/archive-cf/cs/get-support</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/wiki/en/components/accordion</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/take-control</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/neurodermitis-pollenzeit</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/basic-login/basic-login</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/neurodermitis-systemische-erkrankung</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/tools-to-support-a-new-conversation</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/keinoja-uuden-keskustelun-tueksi/atooppisen-ihottuman-vaikutusten-arviointi</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/basic-login/forgot-password</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/poem</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/archive---cf/blog-posts-node/blog-one</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/archive-cf/fi</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/global-content-creation/appointment-planner</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/archive-cf/fi/keinoja-uuden-keskustelun-tueksi</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/tools-to-support-a-new-conversation</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/priprava-na-rozhovor-s-lekarom</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/exzeem/feiten-en-fabels-over-eczeem</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool-short</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ru/ru/forgot-password</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/archive-cf/fi/ymmarra-atooppista-ihottumaasi</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/co/es/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/change-password</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/archive-cf/tr/ipuclari</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/keinoja-uuden-keskustelun-tueksi/valmistaudu-laakarikaynnille</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/ipuclari/planlayin/doktor-goresmesine-hazirlik-rehberi</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ru/ru</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fr/fr/prenez-le-controle-de-votre-eczema-atopique</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/sitemap</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/demo/de/blog/Neurodermitis-Ursachen-und-Ausloeser</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/understanding-eczema/faqs</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/pflegeprodukte</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/basic-login/basic-login</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/neurodermitis-arztbesuch/uebersicht</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/build-test/el/tools-to-support-a-new-conversation</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/archive-cf/fi/keinoja-uuden-keskustelun-tueksi/atooppisen-ihottuman-vaikutusten-arviointi</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/basic-login</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/priprava-na-rozhovor-s-lekarem/naplanujte-si-dalsi-schuzku-s-lekarem/pruvodce-rozhovorem-s-lekarem-kratky</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/wiki/en/components/image-extension</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/demo/de/blog/orf-konkret-mythen</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/understanding-eczema/faqs</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/NRS</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/ipuclari/planlayin</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ru/ru/tools-to-support-a-new-conversation</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/was-hilft-gegen-neurodermitis</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/ziskajte-podporu</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/basic-login/basic-login</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/tools-to-support-a-new-conversation/setting-your-goals/goal-writing-assistant</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/sitemap</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/zulassung-arzneimittel-so-ist-die-sicherheit-moderner-therapien</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/errors/403</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/errors/404</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/wiki/en/components/link-button</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/kontroluelealin</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/sitemap</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ru/ru/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool-short</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/understand-your-ad</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ar/es/conectar-con-un-medico/encontra-apoyo</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en/tools-to-support-a-new-conversation</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ru/ru/sitemap</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fr/fr/obtenez-de-laide/votre-equipe-de-soin</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/basic-login</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/sitemap</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/sitemap-new</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/archive-cf/tr/ipuclari/hedeflerinizibelirleyin</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/neurodermitis-schueben-vorbeugen</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/build-test/el/take-control</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ar/es/comprenda-su-DA/conoce-el-impacto-en-tu-DA</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/loyda-tukea</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/archive-cf/tr/ipuclari/hedeflerinizibelirleyin/hedef-belirleme-rehberi</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-leicht-mittel-schwer</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ru/ru/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/uy/es/comprenda-su-DA/herramienta-analizadora-impacto-da</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/demo/de/blog/Hautwoche-Kostenlose-Online-Beratung-zu-Neurodermitis-und-Schuppenflechte</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/uy/es/mapa-del-sitio</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/all-about-eczema/eczema-and-mental-health</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/einschraenkung-der-lebensqualitaet</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/ipuclari/hedeflerinizibelirleyin</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/archive-cf/fi/ota-tilanne-haltuun</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/archive---cf/blog-posts-node</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/bildquelle</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/podcast-rss</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/ipuclari/etkiyianlayin</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/get-support</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/pt/pt</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/tome-el-control</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-workshop-so-geling-das-gespraech-mit-hautaerzten</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/co/es/tools-to-support-a-new-conversation/planning-your-next-appointment</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/se/sv/archive---cf/sv/get-support</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/BD/en/get-support</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/hilfreiche-tools/welchen-einfluss-hat-neurodermitis-auf-dich-und-dein-leben</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/archive-cf/fi/keinoja-uuden-keskustelun-tueksi/atooppisen-ihottuman-vaikutusten-arviointi/testi</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/tools-to-support-a-new-conversation</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/wiki/en/components</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-broschuere</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/archive---cf/podcast-demo</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sk/sk/priprava-na-rozhovor-s-lekarom/naplanujte-si-dalsie-stretnutie-s-lekarom/priprava-na-stretnutie-s-lekarom-kratke</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gb/en/test-page-jl/appointment-preparation-tool</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/uy/es/terminos-de-uso</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/py/es/comprenda-su-DA/conoce-el-impacto-en-tu-DA</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/demo/de</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/pribehy-pacientu</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/juckreiz-lindern-bei-neurodermitis</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/finde-hautaerztinnen/neurodermitis-barometer</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/dev-instagram</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/welcher-arzt-hilft</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/archive---cf/nl/tools-to-support-a-new-conversation/bereid-de-afspraak-met-je-zorgverlener-voor/appointment-preparation-tool</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/build-test/el/understand-your-ad</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/ernaehrung-neurodermitis</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/patientenmagazin-ausgabe-2</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/dev-facilities</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/woran-erkennt-man-neurodermitis</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/demo/en</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/basic-login</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/build-test</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/pt/pt/community-guidelines</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/Neurodermitis-Ursachen-und-Ausloeser</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/co/es/understand-your-ad</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/basic-login/change-password</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/errors</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/tr/tr/destekalin</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/sa/en1/errors/500</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/get-support</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/hu/hu/global-content-creation/goal-writing-assistant</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/errors</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/archive---cf/fr</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/uy/es/inicio-de-sesion</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/master/en/understand-your-ad</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v xml:space="preserve">/content/abbvie-lets-talk-eczema-ous/demo/poem </v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/systemtherapie-biologika-jak-inhibitoren</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v xml:space="preserve"> /content/abbvie-lets-talk-eczema-ous/hu/hu/basic-login/set-password </v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/ie/en/basic-login/change-password</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v xml:space="preserve">/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/neurodermitis-hand-ekzem </v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/be/fr/sitemap</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>/content/abbvie-lets-talk-eczema-ous/at/de/was-ist-neurodermitis</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v xml:space="preserve">/content/abbvie-lets-talk-eczema-ous/demo/de/blog/wissenswertes-zu-neurodermitis </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B381"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/contentpaths.xlsx
+++ b/contentpaths.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,15 +412,12 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/de/de/basic-login/forgot-password</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Preview activated</v>
+        <v>/content/abbvie-pro/uk/en/test-podcast/podcast-examples</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/gr/el/build-test/el/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad</v>
+        <v>/content/abbvie-pro/uk/en/test-podcast/tabs-test-page</v>
       </c>
       <c r="B3" t="str">
         <v>Preview activated</v>
@@ -428,7 +425,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/nl/nl/exzeem/tips-bij-eczeem</v>
+        <v>/content/abbvie-pro/uk/en/test-podcast/test-gif</v>
       </c>
       <c r="B4" t="str">
         <v>Preview activated</v>
@@ -436,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/cz/cs/archive-cf/cs/pribehy-pacientu</v>
+        <v>/content/abbvie-pro/uk/en/test-podcast/test-logo-lozenge-combination</v>
       </c>
       <c r="B5" t="str">
         <v>Preview activated</v>
@@ -444,20 +441,20 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/fi/fi/set-password</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Preview activated</v>
+        <v>/content/abbvie-pro/uk/en/neuroscience/parkinsons/products/duodopa-what-is-apd/contact-us/abc</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/sa/en1/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool-short</v>
+        <v>/content/abbvie-pro/uk/en/test-podcast/test-aml-page</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Preview activated</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/basic-login/forgot-password</v>
+        <v>/content/abbvie-pro/uk/en/test-podcast/understanding-ndo</v>
       </c>
       <c r="B8" t="str">
         <v>Preview activated</v>
@@ -465,7 +462,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/at/de/blog/neurodermitis-stress-fuer-die-haut</v>
+        <v>/content/abbvie-pro/uk/en/neuroscience/migraine/aquipta/contact-us1/error</v>
       </c>
       <c r="B9" t="str">
         <v>Preview activated</v>
@@ -473,7 +470,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/jp/ja/facilities/Kinki</v>
+        <v>/content/abbvie-pro/uk/en/test-podcast/dosing-calculator</v>
       </c>
       <c r="B10" t="str">
         <v>Preview activated</v>
@@ -481,12 +478,39 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>/content/abbvie-lets-talk-eczema-ous/de/de/blog-beitraege/kunstaktion</v>
+        <v>/content/abbvie-pro/uk/en/test-podcast/test-header-and-footer-addition</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Preview activated</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>/content/abbvie-pro/uk/en/test-podcast/understanding-oab</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Preview activated</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>/content/abbvie-pro/uk/en/test-podcast/cll-life-test</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Preview activated</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>/content/abbvie-pro/uk/en/test-podcast/rinvoq-gastro-home-page-template</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Preview activated</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/contentpaths.xlsx
+++ b/contentpaths.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,12 +412,15 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/podcast-examples</v>
+        <v>/content/allergan-pro-ami/ca/en/build-test/Welcome/Hematology/chronic-lymphocytic-leukemia</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Preview activated</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/tabs-test-page</v>
+        <v>/content/allergan-pro-ami/ca/fr/build-test/Bienvenue/Neurosciences/ChronicMigraine/PatientCaseStudy</v>
       </c>
       <c r="B3" t="str">
         <v>Preview activated</v>
@@ -425,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/test-gif</v>
+        <v>/content/allergan-pro-ami/ca/en/build-test/Welcome/gynecology/endometriosis</v>
       </c>
       <c r="B4" t="str">
         <v>Preview activated</v>
@@ -433,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/test-logo-lozenge-combination</v>
+        <v>/content/allergan-pro-ami/fr/fr/errors/403</v>
       </c>
       <c r="B5" t="str">
         <v>Preview activated</v>
@@ -441,12 +444,15 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>/content/abbvie-pro/uk/en/neuroscience/parkinsons/products/duodopa-what-is-apd/contact-us/abc</v>
+        <v>/content/allergan-pro-ami/ca/en/Welcome/course-review</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Preview activated</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/test-aml-page</v>
+        <v>/content/allergan-pro-ami/ca/fr/build-test/Bienvenue/Neurosciences/SpasticityandMovementDisorders</v>
       </c>
       <c r="B7" t="str">
         <v>Preview activated</v>
@@ -454,7 +460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/understanding-ndo</v>
+        <v>/content/allergan-pro-ami/de/de/change-password</v>
       </c>
       <c r="B8" t="str">
         <v>Preview activated</v>
@@ -462,7 +468,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>/content/abbvie-pro/uk/en/neuroscience/migraine/aquipta/contact-us1/error</v>
+        <v>/content/allergan-pro-ami/fr/fr/event-page/remote-management</v>
       </c>
       <c r="B9" t="str">
         <v>Preview activated</v>
@@ -470,7 +476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/dosing-calculator</v>
+        <v>/content/allergan-pro-ami/ca/en/event-page/event-four</v>
       </c>
       <c r="B10" t="str">
         <v>Preview activated</v>
@@ -478,7 +484,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/test-header-and-footer-addition</v>
+        <v>/content/allergan-pro-ami/ca/en/basic-login</v>
       </c>
       <c r="B11" t="str">
         <v>Preview activated</v>
@@ -486,7 +492,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/understanding-oab</v>
+        <v>/content/allergan-pro-ami/ca/en/event-page/event-2</v>
       </c>
       <c r="B12" t="str">
         <v>Preview activated</v>
@@ -494,23 +500,15 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/cll-life-test</v>
+        <v>/content/allergan-pro-ami/ca/en/chronic-migraine</v>
       </c>
       <c r="B13" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>/content/abbvie-pro/uk/en/test-podcast/rinvoq-gastro-home-page-template</v>
-      </c>
-      <c r="B14" t="str">
         <v>Preview activated</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/contentpaths.xlsx
+++ b/contentpaths.xlsx
@@ -1,41 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABBISH\Documents\Playwright\preview-activate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C2CA59-5DF9-4423-A8D5-4605CB2E6A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29085" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="1" r:id="rId1"/>
+    <sheet name="Contents" sheetId="2" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Content Path</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>/content/abbvie-pro/de/de/therapy-areas/virology/hepatitis-c/service/thank-you-contact-request</t>
+  </si>
+  <si>
+    <t>/content/abbvie-pro/de/de/therapy-areas/oncology/hemato-oncology/artikel/closed/direct-downloads/eha23-tag1-cll2</t>
+  </si>
+  <si>
+    <t>/content/abbvie-pro/de/de/therapy-areas/oncology/hemato-oncology/artikel/closed/direct-downloads/kongresshighlights-ash-2022-t2-x1</t>
+  </si>
+  <si>
+    <t>/content/abbvie-pro/de/de/therapy-areas/immunology/dermatology/artikel/closed/fobi-kongressbericht-2024</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +74,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,119 +413,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F43F26-B351-4851-826A-A8F0F739176B}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="118.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Content Path</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Status</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>/content/allergan-pro-ami/ca/en/build-test/Welcome/Hematology/chronic-lymphocytic-leukemia</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Preview activated</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>/content/allergan-pro-ami/ca/fr/build-test/Bienvenue/Neurosciences/ChronicMigraine/PatientCaseStudy</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Preview activated</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>/content/allergan-pro-ami/ca/en/build-test/Welcome/gynecology/endometriosis</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Preview activated</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>/content/allergan-pro-ami/fr/fr/errors/403</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>/content/allergan-pro-ami/ca/en/Welcome/course-review</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>/content/allergan-pro-ami/ca/fr/build-test/Bienvenue/Neurosciences/SpasticityandMovementDisorders</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>/content/allergan-pro-ami/de/de/change-password</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>/content/allergan-pro-ami/fr/fr/event-page/remote-management</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>/content/allergan-pro-ami/ca/en/event-page/event-four</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>/content/allergan-pro-ami/ca/en/basic-login</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>/content/allergan-pro-ami/ca/en/event-page/event-2</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Preview activated</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>/content/allergan-pro-ami/ca/en/chronic-migraine</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Preview activated</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>